--- a/basic/ch09_수식/data.xlsx
+++ b/basic/ch09_수식/data.xlsx
@@ -1,40 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Python_WS\Excel_WS\basic\ch09_수식\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,80 +57,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,88 +361,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
         <v>10</v>
       </c>
       <c r="B1">
         <f>A1+A2</f>
-        <v/>
-      </c>
-      <c r="C1">
-        <f>COUNT(A1:A7)</f>
-        <v/>
-      </c>
-      <c r="D1">
-        <f>SUM(A1:A7)</f>
-        <v/>
-      </c>
-      <c r="E1">
-        <f>IF(A1&gt;6, "True", "False")</f>
-        <v/>
-      </c>
-      <c r="F1">
-        <f>CONCATENATE(A1," ",B1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>20</v>
       </c>
-      <c r="D2">
-        <f>AVERAGE(A1:A7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>30</v>
       </c>
       <c r="B3">
         <f>A1*5</f>
-        <v/>
-      </c>
-      <c r="D3">
-        <f>MIN(A1:A7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>40</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>50</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>60</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>70</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>